--- a/biology/Botanique/Parc_Parissot/Parc_Parissot.xlsx
+++ b/biology/Botanique/Parc_Parissot/Parc_Parissot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Parissot est un parc joignant les communes Beaumontel et Beaumont-le-Roger. 
@@ -516,7 +528,9 @@
           <t>Kiosque</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Construit sur la demande du sénateur Parissot, ce kiosque abrite sous sa voûte les armoiries de la commune de Beaumontel. Ce blason symbolise l'union des blasons de deux grandes familles de Beaumontel au XVe siècle.
 Le premier appartient à la famille d'Orbec « d'or au lion de gueule ». Louis d'Orbec est en 1405 seigneur de Beaumontel.
@@ -549,7 +563,9 @@
           <t>Obélisque</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Construit en 1911 au décès du sénateur, cet obélisque lui rend hommage. Ce serait ici que seraient enterrés le cœur et la main droite du sénateur[réf. nécessaire].
  Portail des espaces verts   Portail de l’Eure                    </t>
